--- a/GATEWAY/A1#111ESCXXXXXXXX/E-SC_SRL/RADX/V.9/report-checklist.xlsx
+++ b/GATEWAY/A1#111ESCXXXXXXXX/E-SC_SRL/RADX/V.9/report-checklist.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\inetpub\wwwroot\RadX_CRTF\RadX_CRTF\RadX_CRTF\temp\ACCREDITAMENTO\VALIDAZIONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\inetpub\wwwroot\RadX_CRTF\RadX_CRTF\RadX_CRTF\temp\ACCREDITAMENTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A588928-6A7D-4018-8FCF-FE39CBF3021E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{809CB7A8-4EEE-499D-A7A2-3E3380BCD94E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="328">
   <si>
     <t>ID</t>
   </si>
@@ -1184,6 +1184,155 @@
   <si>
     <t>Visualizzazione di un messaggio di errore al serizio dell'operatore, che sarà inoltre memorizzzato in un file di log. 
 L'operaizone di inoltro verrà gestito in back office dall'operatore.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+I campi del token JWT possono essere valorizzati in maniera errata ma non possono essere mancanti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+2023-07-19T15:22:38Z</t>
+  </si>
+  <si>
+    <t>882a4cc1fca1f91a</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.afe2084b775c67bf43b22fc6f71bce05e9832566674e6d0bf97abc4741728b3e.18f93012b0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>Nel caso l'azienda decida di rendere questa tipologia di errore bloccante: "Errore di validazione del documento [contenuto "title" e "detail" dell'errore]. Prima di procedere si prega di contattare l'assistenza. ".
+Nel caso l'azienda decida di rendere questa tipologia di errore visibile ma non bloccante: "Errore di validazione del documento [contenuto "title" e "detail" dell'errore]. Si prega di contattare l'assistenza. Si vuole proseguire?"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+2023-07-19T16:03:38Z</t>
+  </si>
+  <si>
+    <t>99705f25d1ecf493</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.afe2084b775c67bf43b22fc6f71bce05e9832566674e6d0bf97abc4741728b3e.c1a45a6d91^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+2023-07-19T16:34:05Z</t>
+  </si>
+  <si>
+    <t>3d4deb3288eafdaf</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.afe2084b775c67bf43b22fc6f71bce05e9832566674e6d0bf97abc4741728b3e.8e32199830^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-07-19T16:51:24Z</t>
+  </si>
+  <si>
+    <t>5b9de60e2d690ab8</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.afe2084b775c67bf43b22fc6f71bce05e9832566674e6d0bf97abc4741728b3e.3041a06ce3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-07-19T17:09:44Z</t>
+  </si>
+  <si>
+    <t>7207421de015d0de</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.afe2084b775c67bf43b22fc6f71bce05e9832566674e6d0bf97abc4741728b3e.9d2fabce4a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-07-19T17:14:25Z</t>
+  </si>
+  <si>
+    <t>3c91429ffe7c1860</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.afe2084b775c67bf43b22fc6f71bce05e9832566674e6d0bf97abc4741728b3e.d4c315ec0a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-07-19T17:34:32Z</t>
+  </si>
+  <si>
+    <t>d806754f36cf2eec</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.afe2084b775c67bf43b22fc6f71bce05e9832566674e6d0bf97abc4741728b3e.e12a67b12a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-07-19T17:36:32Z</t>
+  </si>
+  <si>
+    <t>6b8616064dd437fa</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.afe2084b775c67bf43b22fc6f71bce05e9832566674e6d0bf97abc4741728b3e.31de4a6253^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>dcb98eafe55f723b</t>
+  </si>
+  <si>
+    <t>2023-07-19T17:50:02Z</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.afe2084b775c67bf43b22fc6f71bce05e9832566674e6d0bf97abc4741728b3e.6dc41049d0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>5eefa72eb27c77b1</t>
+  </si>
+  <si>
+    <t>2023-07-19T18:01:12Z</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.afe2084b775c67bf43b22fc6f71bce05e9832566674e6d0bf97abc4741728b3e.d0506ec8ad^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-07-19T18:08:52Z</t>
+  </si>
+  <si>
+    <t>5382fc97f45becfb</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.afe2084b775c67bf43b22fc6f71bce05e9832566674e6d0bf97abc4741728b3e.bef7d4d447^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-07-20T09:32:02Z</t>
+  </si>
+  <si>
+    <t>57505612327dbbc0</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.afe2084b775c67bf43b22fc6f71bce05e9832566674e6d0bf97abc4741728b3e.f76bdcf91d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-07-20T09:35:15Z</t>
+  </si>
+  <si>
+    <t>4b361de8fb80e4a3</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.afe2084b775c67bf43b22fc6f71bce05e9832566674e6d0bf97abc4741728b3e.2c296373ba^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-07-20T09:53:23Z</t>
+  </si>
+  <si>
+    <t>5c1847a7e6df7171</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.afe2084b775c67bf43b22fc6f71bce05e9832566674e6d0bf97abc4741728b3e.edca1e7416^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>observation/valu viene richiamato nei campi opzionali che non gestiamo</t>
+  </si>
+  <si>
+    <t>859601a211ee74c1</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.afe2084b775c67bf43b22fc6f71bce05e9832566674e6d0bf97abc4741728b3e.2904145ffb^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-07-20T10:07:48Z</t>
   </si>
 </sst>
 </file>
@@ -1842,10 +1991,10 @@
   <dimension ref="A1:T110"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="3" ySplit="7" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="7" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="P111" sqref="P111"/>
+      <selection pane="bottomRight" activeCell="I110" sqref="I110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2477,7 +2626,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="210.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>32</v>
       </c>
@@ -2497,8 +2646,12 @@
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
+      <c r="J22" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>280</v>
+      </c>
       <c r="L22" s="9"/>
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
@@ -2507,7 +2660,9 @@
       <c r="Q22" s="9"/>
       <c r="R22" s="10"/>
       <c r="S22" s="11"/>
-      <c r="T22" s="12"/>
+      <c r="T22" s="12" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="23" spans="1:20" ht="210.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
@@ -2627,7 +2782,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="210.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>40</v>
       </c>
@@ -2643,21 +2798,43 @@
       <c r="E26" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F26" s="7"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="9"/>
+      <c r="F26" s="7">
+        <v>45126</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>24</v>
+      </c>
       <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
+      <c r="L26" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M26" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N26" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="O26" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="P26" s="9" t="s">
+        <v>233</v>
+      </c>
       <c r="Q26" s="9"/>
       <c r="R26" s="10"/>
       <c r="S26" s="11"/>
-      <c r="T26" s="12"/>
+      <c r="T26" s="12" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="27" spans="1:20" ht="210.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
@@ -2765,7 +2942,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="136.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" ht="136.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>48</v>
       </c>
@@ -2781,21 +2958,31 @@
       <c r="E30" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="F30" s="7"/>
+      <c r="F30" s="7">
+        <v>45126</v>
+      </c>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
-      <c r="J30" s="9"/>
+      <c r="J30" s="9" t="s">
+        <v>24</v>
+      </c>
       <c r="K30" s="9"/>
       <c r="L30" s="9"/>
       <c r="M30" s="9"/>
       <c r="N30" s="9"/>
       <c r="O30" s="9"/>
-      <c r="P30" s="9"/>
+      <c r="P30" s="9" t="s">
+        <v>279</v>
+      </c>
       <c r="Q30" s="9"/>
-      <c r="R30" s="10"/>
+      <c r="R30" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="S30" s="11"/>
-      <c r="T30" s="12"/>
+      <c r="T30" s="12" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="31" spans="1:20" ht="60.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
@@ -4057,7 +4244,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="180" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>93</v>
       </c>
@@ -4095,7 +4282,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" ht="165.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
         <v>122</v>
       </c>
@@ -4127,7 +4314,7 @@
       <c r="S63" s="11"/>
       <c r="T63" s="12"/>
     </row>
-    <row r="64" spans="1:20" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" ht="165.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
         <v>123</v>
       </c>
@@ -4159,7 +4346,7 @@
       <c r="S64" s="11"/>
       <c r="T64" s="12"/>
     </row>
-    <row r="65" spans="1:20" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" ht="165.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
         <v>124</v>
       </c>
@@ -4191,7 +4378,7 @@
       <c r="S65" s="11"/>
       <c r="T65" s="12"/>
     </row>
-    <row r="66" spans="1:20" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" ht="180.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
         <v>125</v>
       </c>
@@ -4223,7 +4410,7 @@
       <c r="S66" s="11"/>
       <c r="T66" s="12"/>
     </row>
-    <row r="67" spans="1:20" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" ht="165.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
         <v>126</v>
       </c>
@@ -4255,7 +4442,7 @@
       <c r="S67" s="11"/>
       <c r="T67" s="12"/>
     </row>
-    <row r="68" spans="1:20" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" ht="165.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
         <v>127</v>
       </c>
@@ -4287,7 +4474,7 @@
       <c r="S68" s="11"/>
       <c r="T68" s="12"/>
     </row>
-    <row r="69" spans="1:20" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" ht="165.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
         <v>128</v>
       </c>
@@ -4319,7 +4506,7 @@
       <c r="S69" s="11"/>
       <c r="T69" s="12"/>
     </row>
-    <row r="70" spans="1:20" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" ht="180.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
         <v>129</v>
       </c>
@@ -4351,7 +4538,7 @@
       <c r="S70" s="11"/>
       <c r="T70" s="12"/>
     </row>
-    <row r="71" spans="1:20" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" ht="165.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
         <v>130</v>
       </c>
@@ -4383,7 +4570,7 @@
       <c r="S71" s="11"/>
       <c r="T71" s="12"/>
     </row>
-    <row r="72" spans="1:20" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20" ht="165.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
         <v>131</v>
       </c>
@@ -4415,7 +4602,7 @@
       <c r="S72" s="11"/>
       <c r="T72" s="12"/>
     </row>
-    <row r="73" spans="1:20" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20" ht="165.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
         <v>132</v>
       </c>
@@ -4447,7 +4634,7 @@
       <c r="S73" s="11"/>
       <c r="T73" s="12"/>
     </row>
-    <row r="74" spans="1:20" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20" ht="180.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
         <v>133</v>
       </c>
@@ -4479,7 +4666,7 @@
       <c r="S74" s="11"/>
       <c r="T74" s="12"/>
     </row>
-    <row r="75" spans="1:20" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" ht="165.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
         <v>134</v>
       </c>
@@ -4511,7 +4698,7 @@
       <c r="S75" s="11"/>
       <c r="T75" s="12"/>
     </row>
-    <row r="76" spans="1:20" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" ht="165.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
         <v>135</v>
       </c>
@@ -4543,7 +4730,7 @@
       <c r="S76" s="11"/>
       <c r="T76" s="12"/>
     </row>
-    <row r="77" spans="1:20" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" ht="165.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
         <v>136</v>
       </c>
@@ -4575,7 +4762,7 @@
       <c r="S77" s="11"/>
       <c r="T77" s="12"/>
     </row>
-    <row r="78" spans="1:20" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20" ht="180.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
         <v>137</v>
       </c>
@@ -4607,7 +4794,7 @@
       <c r="S78" s="11"/>
       <c r="T78" s="12"/>
     </row>
-    <row r="79" spans="1:20" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20" ht="165.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
         <v>138</v>
       </c>
@@ -4639,7 +4826,7 @@
       <c r="S79" s="11"/>
       <c r="T79" s="12"/>
     </row>
-    <row r="80" spans="1:20" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20" ht="165.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
         <v>139</v>
       </c>
@@ -4671,7 +4858,7 @@
       <c r="S80" s="11"/>
       <c r="T80" s="12"/>
     </row>
-    <row r="81" spans="1:20" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:20" ht="165.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
         <v>140</v>
       </c>
@@ -4703,7 +4890,7 @@
       <c r="S81" s="11"/>
       <c r="T81" s="12"/>
     </row>
-    <row r="82" spans="1:20" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:20" ht="180.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
         <v>141</v>
       </c>
@@ -4735,7 +4922,7 @@
       <c r="S82" s="11"/>
       <c r="T82" s="12"/>
     </row>
-    <row r="83" spans="1:20" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:20" ht="165.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
         <v>142</v>
       </c>
@@ -4767,7 +4954,7 @@
       <c r="S83" s="11"/>
       <c r="T83" s="12"/>
     </row>
-    <row r="84" spans="1:20" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:20" ht="165.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
         <v>143</v>
       </c>
@@ -4799,7 +4986,7 @@
       <c r="S84" s="11"/>
       <c r="T84" s="12"/>
     </row>
-    <row r="85" spans="1:20" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:20" ht="165.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
         <v>144</v>
       </c>
@@ -4831,7 +5018,7 @@
       <c r="S85" s="11"/>
       <c r="T85" s="12"/>
     </row>
-    <row r="86" spans="1:20" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:20" ht="180.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
         <v>145</v>
       </c>
@@ -4863,7 +5050,7 @@
       <c r="S86" s="11"/>
       <c r="T86" s="12"/>
     </row>
-    <row r="87" spans="1:20" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:20" ht="180.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="4">
         <v>146</v>
       </c>
@@ -4895,7 +5082,7 @@
       <c r="S87" s="11"/>
       <c r="T87" s="12"/>
     </row>
-    <row r="88" spans="1:20" ht="225" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:20" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
         <v>147</v>
       </c>
@@ -4911,11 +5098,21 @@
       <c r="E88" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="F88" s="7"/>
-      <c r="G88" s="8"/>
-      <c r="H88" s="8"/>
-      <c r="I88" s="8"/>
-      <c r="J88" s="9"/>
+      <c r="F88" s="7">
+        <v>45126</v>
+      </c>
+      <c r="G88" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="H88" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="I88" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="J88" s="9" t="s">
+        <v>24</v>
+      </c>
       <c r="K88" s="9"/>
       <c r="L88" s="9"/>
       <c r="M88" s="9"/>
@@ -4925,9 +5122,11 @@
       <c r="Q88" s="9"/>
       <c r="R88" s="10"/>
       <c r="S88" s="11"/>
-      <c r="T88" s="12"/>
-    </row>
-    <row r="89" spans="1:20" ht="225" hidden="1" x14ac:dyDescent="0.25">
+      <c r="T88" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="4">
         <v>148</v>
       </c>
@@ -4959,7 +5158,7 @@
       <c r="S89" s="11"/>
       <c r="T89" s="12"/>
     </row>
-    <row r="90" spans="1:20" ht="225" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:20" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
         <v>149</v>
       </c>
@@ -4991,7 +5190,7 @@
       <c r="S90" s="11"/>
       <c r="T90" s="12"/>
     </row>
-    <row r="91" spans="1:20" ht="225" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:20" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="4">
         <v>150</v>
       </c>
@@ -5007,11 +5206,21 @@
       <c r="E91" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="F91" s="7"/>
-      <c r="G91" s="8"/>
-      <c r="H91" s="8"/>
-      <c r="I91" s="8"/>
-      <c r="J91" s="9"/>
+      <c r="F91" s="7">
+        <v>45126</v>
+      </c>
+      <c r="G91" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="H91" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="I91" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="J91" s="9" t="s">
+        <v>24</v>
+      </c>
       <c r="K91" s="6"/>
       <c r="L91" s="9"/>
       <c r="M91" s="9"/>
@@ -5021,9 +5230,11 @@
       <c r="Q91" s="9"/>
       <c r="R91" s="10"/>
       <c r="S91" s="11"/>
-      <c r="T91" s="12"/>
-    </row>
-    <row r="92" spans="1:20" ht="165" hidden="1" x14ac:dyDescent="0.25">
+      <c r="T91" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="4">
         <v>151</v>
       </c>
@@ -5039,23 +5250,45 @@
       <c r="E92" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="F92" s="7"/>
-      <c r="G92" s="8"/>
-      <c r="H92" s="8"/>
-      <c r="I92" s="8"/>
-      <c r="J92" s="9"/>
+      <c r="F92" s="7">
+        <v>45126</v>
+      </c>
+      <c r="G92" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="H92" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="I92" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="J92" s="9" t="s">
+        <v>24</v>
+      </c>
       <c r="K92" s="9"/>
-      <c r="L92" s="9"/>
-      <c r="M92" s="9"/>
-      <c r="N92" s="9"/>
-      <c r="O92" s="9"/>
-      <c r="P92" s="9"/>
+      <c r="L92" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M92" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N92" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="O92" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="P92" s="22" t="s">
+        <v>233</v>
+      </c>
       <c r="Q92" s="9"/>
       <c r="R92" s="10"/>
       <c r="S92" s="11"/>
-      <c r="T92" s="12"/>
-    </row>
-    <row r="93" spans="1:20" ht="180" hidden="1" x14ac:dyDescent="0.25">
+      <c r="T92" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="4">
         <v>152</v>
       </c>
@@ -5071,23 +5304,45 @@
       <c r="E93" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="F93" s="7"/>
-      <c r="G93" s="8"/>
-      <c r="H93" s="8"/>
-      <c r="I93" s="8"/>
-      <c r="J93" s="9"/>
+      <c r="F93" s="7">
+        <v>45126</v>
+      </c>
+      <c r="G93" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="H93" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="I93" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="J93" s="9" t="s">
+        <v>24</v>
+      </c>
       <c r="K93" s="9"/>
-      <c r="L93" s="9"/>
-      <c r="M93" s="9"/>
-      <c r="N93" s="9"/>
-      <c r="O93" s="9"/>
-      <c r="P93" s="9"/>
+      <c r="L93" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M93" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N93" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="O93" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="P93" s="22" t="s">
+        <v>233</v>
+      </c>
       <c r="Q93" s="9"/>
       <c r="R93" s="10"/>
       <c r="S93" s="11"/>
-      <c r="T93" s="12"/>
-    </row>
-    <row r="94" spans="1:20" ht="180" hidden="1" x14ac:dyDescent="0.25">
+      <c r="T93" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="4">
         <v>153</v>
       </c>
@@ -5103,23 +5358,45 @@
       <c r="E94" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="F94" s="14"/>
-      <c r="G94" s="8"/>
-      <c r="H94" s="8"/>
-      <c r="I94" s="8"/>
-      <c r="J94" s="9"/>
+      <c r="F94" s="14">
+        <v>45126</v>
+      </c>
+      <c r="G94" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="H94" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="I94" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="J94" s="9" t="s">
+        <v>24</v>
+      </c>
       <c r="K94" s="9"/>
-      <c r="L94" s="9"/>
-      <c r="M94" s="9"/>
-      <c r="N94" s="9"/>
-      <c r="O94" s="9"/>
-      <c r="P94" s="9"/>
+      <c r="L94" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M94" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N94" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="O94" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="P94" s="22" t="s">
+        <v>233</v>
+      </c>
       <c r="Q94" s="9"/>
       <c r="R94" s="10"/>
       <c r="S94" s="11"/>
-      <c r="T94" s="12"/>
-    </row>
-    <row r="95" spans="1:20" ht="180" hidden="1" x14ac:dyDescent="0.25">
+      <c r="T94" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="4">
         <v>154</v>
       </c>
@@ -5135,23 +5412,45 @@
       <c r="E95" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="F95" s="14"/>
-      <c r="G95" s="8"/>
-      <c r="H95" s="8"/>
-      <c r="I95" s="8"/>
-      <c r="J95" s="9"/>
+      <c r="F95" s="14">
+        <v>45126</v>
+      </c>
+      <c r="G95" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="H95" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="I95" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="J95" s="9" t="s">
+        <v>24</v>
+      </c>
       <c r="K95" s="9"/>
-      <c r="L95" s="9"/>
-      <c r="M95" s="9"/>
-      <c r="N95" s="9"/>
-      <c r="O95" s="9"/>
-      <c r="P95" s="9"/>
+      <c r="L95" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M95" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N95" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="O95" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="P95" s="22" t="s">
+        <v>233</v>
+      </c>
       <c r="Q95" s="9"/>
       <c r="R95" s="10"/>
       <c r="S95" s="11"/>
-      <c r="T95" s="12"/>
-    </row>
-    <row r="96" spans="1:20" ht="180" hidden="1" x14ac:dyDescent="0.25">
+      <c r="T95" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="4">
         <v>155</v>
       </c>
@@ -5167,23 +5466,45 @@
       <c r="E96" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="F96" s="7"/>
-      <c r="G96" s="8"/>
-      <c r="H96" s="8"/>
-      <c r="I96" s="8"/>
-      <c r="J96" s="9"/>
+      <c r="F96" s="7">
+        <v>45126</v>
+      </c>
+      <c r="G96" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="H96" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="I96" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="J96" s="9" t="s">
+        <v>24</v>
+      </c>
       <c r="K96" s="9"/>
-      <c r="L96" s="9"/>
-      <c r="M96" s="9"/>
-      <c r="N96" s="9"/>
-      <c r="O96" s="9"/>
-      <c r="P96" s="9"/>
+      <c r="L96" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M96" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N96" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="O96" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="P96" s="22" t="s">
+        <v>233</v>
+      </c>
       <c r="Q96" s="9"/>
       <c r="R96" s="10"/>
       <c r="S96" s="11"/>
-      <c r="T96" s="12"/>
-    </row>
-    <row r="97" spans="1:20" ht="180" hidden="1" x14ac:dyDescent="0.25">
+      <c r="T96" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="4">
         <v>156</v>
       </c>
@@ -5199,23 +5520,45 @@
       <c r="E97" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="F97" s="7"/>
-      <c r="G97" s="8"/>
-      <c r="H97" s="8"/>
-      <c r="I97" s="8"/>
-      <c r="J97" s="9"/>
+      <c r="F97" s="7">
+        <v>45126</v>
+      </c>
+      <c r="G97" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="H97" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="I97" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="J97" s="9" t="s">
+        <v>24</v>
+      </c>
       <c r="K97" s="9"/>
-      <c r="L97" s="9"/>
-      <c r="M97" s="9"/>
-      <c r="N97" s="9"/>
-      <c r="O97" s="9"/>
-      <c r="P97" s="9"/>
+      <c r="L97" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M97" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N97" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="O97" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="P97" s="22" t="s">
+        <v>233</v>
+      </c>
       <c r="Q97" s="9"/>
       <c r="R97" s="10"/>
       <c r="S97" s="11"/>
-      <c r="T97" s="12"/>
-    </row>
-    <row r="98" spans="1:20" ht="180" hidden="1" x14ac:dyDescent="0.25">
+      <c r="T97" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="4">
         <v>157</v>
       </c>
@@ -5235,8 +5578,12 @@
       <c r="G98" s="8"/>
       <c r="H98" s="8"/>
       <c r="I98" s="8"/>
-      <c r="J98" s="9"/>
-      <c r="K98" s="9"/>
+      <c r="J98" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="K98" s="9" t="s">
+        <v>191</v>
+      </c>
       <c r="L98" s="9"/>
       <c r="M98" s="9"/>
       <c r="N98" s="9"/>
@@ -5245,9 +5592,11 @@
       <c r="Q98" s="9"/>
       <c r="R98" s="10"/>
       <c r="S98" s="11"/>
-      <c r="T98" s="12"/>
-    </row>
-    <row r="99" spans="1:20" ht="180" hidden="1" x14ac:dyDescent="0.25">
+      <c r="T98" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="4">
         <v>158</v>
       </c>
@@ -5263,23 +5612,45 @@
       <c r="E99" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="F99" s="7"/>
-      <c r="G99" s="8"/>
-      <c r="H99" s="8"/>
-      <c r="I99" s="8"/>
-      <c r="J99" s="9"/>
+      <c r="F99" s="7">
+        <v>45126</v>
+      </c>
+      <c r="G99" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="H99" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="I99" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="J99" s="9" t="s">
+        <v>24</v>
+      </c>
       <c r="K99" s="9"/>
-      <c r="L99" s="9"/>
-      <c r="M99" s="9"/>
-      <c r="N99" s="9"/>
-      <c r="O99" s="9"/>
-      <c r="P99" s="9"/>
+      <c r="L99" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M99" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N99" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="O99" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="P99" s="22" t="s">
+        <v>233</v>
+      </c>
       <c r="Q99" s="9"/>
       <c r="R99" s="10"/>
       <c r="S99" s="11"/>
-      <c r="T99" s="12"/>
-    </row>
-    <row r="100" spans="1:20" ht="165" hidden="1" x14ac:dyDescent="0.25">
+      <c r="T99" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="4">
         <v>159</v>
       </c>
@@ -5295,23 +5666,45 @@
       <c r="E100" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="F100" s="7"/>
-      <c r="G100" s="8"/>
-      <c r="H100" s="8"/>
-      <c r="I100" s="8"/>
-      <c r="J100" s="9"/>
+      <c r="F100" s="7">
+        <v>45126</v>
+      </c>
+      <c r="G100" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="H100" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="I100" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="J100" s="9" t="s">
+        <v>24</v>
+      </c>
       <c r="K100" s="9"/>
-      <c r="L100" s="9"/>
-      <c r="M100" s="9"/>
-      <c r="N100" s="9"/>
-      <c r="O100" s="9"/>
-      <c r="P100" s="9"/>
+      <c r="L100" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M100" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N100" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="O100" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="P100" s="22" t="s">
+        <v>233</v>
+      </c>
       <c r="Q100" s="9"/>
       <c r="R100" s="10"/>
       <c r="S100" s="11"/>
-      <c r="T100" s="12"/>
-    </row>
-    <row r="101" spans="1:20" ht="165" hidden="1" x14ac:dyDescent="0.25">
+      <c r="T100" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="4">
         <v>160</v>
       </c>
@@ -5327,23 +5720,45 @@
       <c r="E101" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="F101" s="7"/>
-      <c r="G101" s="8"/>
-      <c r="H101" s="8"/>
-      <c r="I101" s="8"/>
-      <c r="J101" s="9"/>
+      <c r="F101" s="7">
+        <v>45127</v>
+      </c>
+      <c r="G101" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="H101" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="I101" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="J101" s="9" t="s">
+        <v>24</v>
+      </c>
       <c r="K101" s="9"/>
-      <c r="L101" s="9"/>
-      <c r="M101" s="9"/>
-      <c r="N101" s="9"/>
-      <c r="O101" s="9"/>
-      <c r="P101" s="9"/>
+      <c r="L101" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M101" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N101" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="O101" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="P101" s="22" t="s">
+        <v>233</v>
+      </c>
       <c r="Q101" s="9"/>
       <c r="R101" s="10"/>
       <c r="S101" s="11"/>
-      <c r="T101" s="12"/>
-    </row>
-    <row r="102" spans="1:20" ht="180" hidden="1" x14ac:dyDescent="0.25">
+      <c r="T101" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="4">
         <v>161</v>
       </c>
@@ -5359,23 +5774,45 @@
       <c r="E102" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="F102" s="7"/>
-      <c r="G102" s="8"/>
-      <c r="H102" s="8"/>
-      <c r="I102" s="8"/>
-      <c r="J102" s="9"/>
+      <c r="F102" s="7">
+        <v>45127</v>
+      </c>
+      <c r="G102" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="H102" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="I102" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="J102" s="9" t="s">
+        <v>24</v>
+      </c>
       <c r="K102" s="9"/>
-      <c r="L102" s="9"/>
-      <c r="M102" s="9"/>
-      <c r="N102" s="9"/>
-      <c r="O102" s="9"/>
-      <c r="P102" s="9"/>
+      <c r="L102" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M102" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N102" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="O102" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="P102" s="22" t="s">
+        <v>233</v>
+      </c>
       <c r="Q102" s="9"/>
       <c r="R102" s="10"/>
       <c r="S102" s="11"/>
-      <c r="T102" s="12"/>
-    </row>
-    <row r="103" spans="1:20" ht="180" hidden="1" x14ac:dyDescent="0.25">
+      <c r="T102" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="4">
         <v>162</v>
       </c>
@@ -5395,8 +5832,12 @@
       <c r="G103" s="8"/>
       <c r="H103" s="8"/>
       <c r="I103" s="8"/>
-      <c r="J103" s="9"/>
-      <c r="K103" s="9"/>
+      <c r="J103" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="K103" s="9" t="s">
+        <v>191</v>
+      </c>
       <c r="L103" s="9"/>
       <c r="M103" s="9"/>
       <c r="N103" s="9"/>
@@ -5405,9 +5846,11 @@
       <c r="Q103" s="9"/>
       <c r="R103" s="10"/>
       <c r="S103" s="11"/>
-      <c r="T103" s="12"/>
-    </row>
-    <row r="104" spans="1:20" ht="180" hidden="1" x14ac:dyDescent="0.25">
+      <c r="T103" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="4">
         <v>163</v>
       </c>
@@ -5423,23 +5866,45 @@
       <c r="E104" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="F104" s="7"/>
-      <c r="G104" s="8"/>
-      <c r="H104" s="8"/>
-      <c r="I104" s="8"/>
-      <c r="J104" s="9"/>
+      <c r="F104" s="7">
+        <v>45127</v>
+      </c>
+      <c r="G104" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="H104" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="I104" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="J104" s="9" t="s">
+        <v>24</v>
+      </c>
       <c r="K104" s="9"/>
-      <c r="L104" s="9"/>
-      <c r="M104" s="9"/>
-      <c r="N104" s="9"/>
-      <c r="O104" s="9"/>
-      <c r="P104" s="9"/>
+      <c r="L104" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M104" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N104" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="O104" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="P104" s="22" t="s">
+        <v>233</v>
+      </c>
       <c r="Q104" s="9"/>
       <c r="R104" s="10"/>
       <c r="S104" s="11"/>
-      <c r="T104" s="12"/>
-    </row>
-    <row r="105" spans="1:20" ht="180" hidden="1" x14ac:dyDescent="0.25">
+      <c r="T104" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="4">
         <v>164</v>
       </c>
@@ -5459,8 +5924,12 @@
       <c r="G105" s="8"/>
       <c r="H105" s="8"/>
       <c r="I105" s="8"/>
-      <c r="J105" s="9"/>
-      <c r="K105" s="9"/>
+      <c r="J105" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="K105" s="9" t="s">
+        <v>191</v>
+      </c>
       <c r="L105" s="9"/>
       <c r="M105" s="9"/>
       <c r="N105" s="9"/>
@@ -5469,9 +5938,11 @@
       <c r="Q105" s="9"/>
       <c r="R105" s="10"/>
       <c r="S105" s="11"/>
-      <c r="T105" s="12"/>
-    </row>
-    <row r="106" spans="1:20" ht="180" hidden="1" x14ac:dyDescent="0.25">
+      <c r="T105" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="4">
         <v>165</v>
       </c>
@@ -5491,8 +5962,12 @@
       <c r="G106" s="8"/>
       <c r="H106" s="8"/>
       <c r="I106" s="8"/>
-      <c r="J106" s="9"/>
-      <c r="K106" s="9"/>
+      <c r="J106" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="K106" s="9" t="s">
+        <v>191</v>
+      </c>
       <c r="L106" s="9"/>
       <c r="M106" s="9"/>
       <c r="N106" s="9"/>
@@ -5501,9 +5976,11 @@
       <c r="Q106" s="9"/>
       <c r="R106" s="10"/>
       <c r="S106" s="11"/>
-      <c r="T106" s="12"/>
-    </row>
-    <row r="107" spans="1:20" ht="180" hidden="1" x14ac:dyDescent="0.25">
+      <c r="T106" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="4">
         <v>166</v>
       </c>
@@ -5523,8 +6000,12 @@
       <c r="G107" s="8"/>
       <c r="H107" s="8"/>
       <c r="I107" s="8"/>
-      <c r="J107" s="9"/>
-      <c r="K107" s="9"/>
+      <c r="J107" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="K107" s="9" t="s">
+        <v>191</v>
+      </c>
       <c r="L107" s="9"/>
       <c r="M107" s="9"/>
       <c r="N107" s="9"/>
@@ -5533,9 +6014,11 @@
       <c r="Q107" s="9"/>
       <c r="R107" s="10"/>
       <c r="S107" s="11"/>
-      <c r="T107" s="12"/>
-    </row>
-    <row r="108" spans="1:20" ht="180" hidden="1" x14ac:dyDescent="0.25">
+      <c r="T107" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="4">
         <v>167</v>
       </c>
@@ -5555,8 +6038,12 @@
       <c r="G108" s="8"/>
       <c r="H108" s="8"/>
       <c r="I108" s="8"/>
-      <c r="J108" s="9"/>
-      <c r="K108" s="9"/>
+      <c r="J108" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="K108" s="9" t="s">
+        <v>191</v>
+      </c>
       <c r="L108" s="9"/>
       <c r="M108" s="9"/>
       <c r="N108" s="9"/>
@@ -5565,9 +6052,11 @@
       <c r="Q108" s="9"/>
       <c r="R108" s="10"/>
       <c r="S108" s="11"/>
-      <c r="T108" s="12"/>
-    </row>
-    <row r="109" spans="1:20" ht="180" hidden="1" x14ac:dyDescent="0.25">
+      <c r="T108" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="4">
         <v>168</v>
       </c>
@@ -5587,8 +6076,12 @@
       <c r="G109" s="8"/>
       <c r="H109" s="8"/>
       <c r="I109" s="8"/>
-      <c r="J109" s="9"/>
-      <c r="K109" s="9"/>
+      <c r="J109" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="K109" s="9" t="s">
+        <v>324</v>
+      </c>
       <c r="L109" s="9"/>
       <c r="M109" s="9"/>
       <c r="N109" s="9"/>
@@ -5597,9 +6090,11 @@
       <c r="Q109" s="9"/>
       <c r="R109" s="10"/>
       <c r="S109" s="11"/>
-      <c r="T109" s="12"/>
-    </row>
-    <row r="110" spans="1:20" ht="180" hidden="1" x14ac:dyDescent="0.25">
+      <c r="T109" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20" ht="210" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
         <v>169</v>
       </c>
@@ -5615,27 +6110,50 @@
       <c r="E110" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="F110" s="7"/>
-      <c r="G110" s="8"/>
-      <c r="H110" s="8"/>
-      <c r="I110" s="8"/>
-      <c r="J110" s="9"/>
+      <c r="F110" s="7">
+        <v>45127</v>
+      </c>
+      <c r="G110" s="17" t="s">
+        <v>327</v>
+      </c>
+      <c r="H110" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="I110" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="J110" s="9" t="s">
+        <v>24</v>
+      </c>
       <c r="K110" s="9"/>
-      <c r="L110" s="9"/>
-      <c r="M110" s="9"/>
-      <c r="N110" s="9"/>
-      <c r="O110" s="9"/>
-      <c r="P110" s="9"/>
+      <c r="L110" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M110" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N110" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="O110" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="P110" s="22" t="s">
+        <v>233</v>
+      </c>
       <c r="Q110" s="9"/>
       <c r="R110" s="10"/>
       <c r="S110" s="11"/>
-      <c r="T110" s="12"/>
+      <c r="T110" s="12" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A7:T110" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="2">
       <filters>
         <filter val="RAD"/>
+        <filter val="RSA"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/GATEWAY/A1#111ESCXXXXXXXX/E-SC_SRL/RADX/V.9/report-checklist.xlsx
+++ b/GATEWAY/A1#111ESCXXXXXXXX/E-SC_SRL/RADX/V.9/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\inetpub\wwwroot\RadX_CRTF\RadX_CRTF\RadX_CRTF\temp\ACCREDITAMENTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{809CB7A8-4EEE-499D-A7A2-3E3380BCD94E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C63FCD-4C44-4787-BED5-C817A8195745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="334">
   <si>
     <t>ID</t>
   </si>
@@ -1204,20 +1204,12 @@
 Nel caso l'azienda decida di rendere questa tipologia di errore visibile ma non bloccante: "Errore di validazione del documento [contenuto "title" e "detail" dell'errore]. Si prega di contattare l'assistenza. Si vuole proseguire?"</t>
   </si>
   <si>
-    <t xml:space="preserve">
-2023-07-19T16:03:38Z</t>
-  </si>
-  <si>
     <t>99705f25d1ecf493</t>
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.150.4.4.afe2084b775c67bf43b22fc6f71bce05e9832566674e6d0bf97abc4741728b3e.c1a45a6d91^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t xml:space="preserve">
-2023-07-19T16:34:05Z</t>
-  </si>
-  <si>
     <t>3d4deb3288eafdaf</t>
   </si>
   <si>
@@ -1333,6 +1325,30 @@
   </si>
   <si>
     <t>2023-07-20T10:07:48Z</t>
+  </si>
+  <si>
+    <t>eabbca322d4eb3cd</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.afe2084b775c67bf43b22fc6f71bce05e9832566674e6d0bf97abc4741728b3e.9915c14e5d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>3ba4b35ac5f4beb3</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.afe2084b775c67bf43b22fc6f71bce05e9832566674e6d0bf97abc4741728b3e.8a07c3deeb^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-07-21T08:58:32Z</t>
+  </si>
+  <si>
+    <t>2023-07-21T09:11:15Z</t>
+  </si>
+  <si>
+    <t>2023-07-19T16:34:05Z</t>
+  </si>
+  <si>
+    <t>2023-07-19T16:03:38Z</t>
   </si>
 </sst>
 </file>
@@ -1991,10 +2007,10 @@
   <dimension ref="A1:T110"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="3" ySplit="7" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="7" topLeftCell="D88" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="I110" sqref="I110"/>
+      <selection pane="bottomRight" activeCell="I90" sqref="I90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2248,7 +2264,7 @@
       <c r="S11" s="11"/>
       <c r="T11" s="12"/>
     </row>
-    <row r="12" spans="1:20" s="26" customFormat="1" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" s="26" customFormat="1" ht="210.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="18">
         <v>11</v>
       </c>
@@ -2292,7 +2308,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" ht="210.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -2336,7 +2352,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" ht="210.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -2374,7 +2390,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" ht="210.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -2572,7 +2588,7 @@
       <c r="S20" s="11"/>
       <c r="T20" s="12"/>
     </row>
-    <row r="21" spans="1:20" ht="210.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" ht="210.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>31</v>
       </c>
@@ -2728,7 +2744,7 @@
       <c r="S24" s="11"/>
       <c r="T24" s="12"/>
     </row>
-    <row r="25" spans="1:20" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" ht="210.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>39</v>
       </c>
@@ -2900,7 +2916,7 @@
       <c r="S28" s="11"/>
       <c r="T28" s="12"/>
     </row>
-    <row r="29" spans="1:20" ht="142.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" ht="142.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>47</v>
       </c>
@@ -3400,7 +3416,7 @@
       <c r="S43" s="11"/>
       <c r="T43" s="12"/>
     </row>
-    <row r="44" spans="1:20" s="26" customFormat="1" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20" s="26" customFormat="1" ht="210.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="18">
         <v>75</v>
       </c>
@@ -3454,7 +3470,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:20" s="26" customFormat="1" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:20" s="26" customFormat="1" ht="210.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="18">
         <v>76</v>
       </c>
@@ -3508,7 +3524,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:20" ht="210.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>77</v>
       </c>
@@ -3562,7 +3578,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20" ht="210.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>78</v>
       </c>
@@ -3616,7 +3632,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="1:20" s="26" customFormat="1" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:20" s="26" customFormat="1" ht="210.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="18">
         <v>79</v>
       </c>
@@ -3670,7 +3686,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:20" ht="210.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>80</v>
       </c>
@@ -3724,7 +3740,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:20" ht="180.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>81</v>
       </c>
@@ -3762,7 +3778,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:20" ht="180.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>82</v>
       </c>
@@ -3800,7 +3816,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="52" spans="1:20" s="26" customFormat="1" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:20" s="26" customFormat="1" ht="210.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="18">
         <v>83</v>
       </c>
@@ -3854,7 +3870,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="53" spans="1:20" s="26" customFormat="1" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:20" s="26" customFormat="1" ht="210.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="18">
         <v>84</v>
       </c>
@@ -3908,7 +3924,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="54" spans="1:20" s="26" customFormat="1" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:20" s="26" customFormat="1" ht="210.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="18">
         <v>85</v>
       </c>
@@ -3962,7 +3978,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:20" ht="210.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>86</v>
       </c>
@@ -4016,7 +4032,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:20" ht="195.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>87</v>
       </c>
@@ -4054,7 +4070,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:20" ht="180.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>88</v>
       </c>
@@ -4092,7 +4108,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:20" ht="165.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>89</v>
       </c>
@@ -4130,7 +4146,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:20" ht="165.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>90</v>
       </c>
@@ -4168,7 +4184,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="60" spans="1:20" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:20" ht="180.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>91</v>
       </c>
@@ -4206,7 +4222,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:20" ht="180.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
         <v>92</v>
       </c>
@@ -4244,7 +4260,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:20" ht="180.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>93</v>
       </c>
@@ -5102,13 +5118,13 @@
         <v>45126</v>
       </c>
       <c r="G88" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="H88" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="H88" s="8" t="s">
+      <c r="I88" s="8" t="s">
         <v>286</v>
-      </c>
-      <c r="I88" s="8" t="s">
-        <v>287</v>
       </c>
       <c r="J88" s="9" t="s">
         <v>24</v>
@@ -5142,11 +5158,21 @@
       <c r="E89" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="F89" s="7"/>
-      <c r="G89" s="8"/>
-      <c r="H89" s="8"/>
-      <c r="I89" s="8"/>
-      <c r="J89" s="9"/>
+      <c r="F89" s="7">
+        <v>45128</v>
+      </c>
+      <c r="G89" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="H89" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="I89" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="J89" s="9" t="s">
+        <v>24</v>
+      </c>
       <c r="K89" s="6"/>
       <c r="L89" s="9"/>
       <c r="M89" s="9"/>
@@ -5156,7 +5182,9 @@
       <c r="Q89" s="9"/>
       <c r="R89" s="10"/>
       <c r="S89" s="11"/>
-      <c r="T89" s="12"/>
+      <c r="T89" s="12" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="90" spans="1:20" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
@@ -5174,11 +5202,21 @@
       <c r="E90" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="F90" s="7"/>
-      <c r="G90" s="8"/>
-      <c r="H90" s="8"/>
-      <c r="I90" s="8"/>
-      <c r="J90" s="9"/>
+      <c r="F90" s="7">
+        <v>45128</v>
+      </c>
+      <c r="G90" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="H90" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="I90" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="J90" s="9" t="s">
+        <v>24</v>
+      </c>
       <c r="K90" s="6"/>
       <c r="L90" s="9"/>
       <c r="M90" s="9"/>
@@ -5188,7 +5226,9 @@
       <c r="Q90" s="9"/>
       <c r="R90" s="10"/>
       <c r="S90" s="11"/>
-      <c r="T90" s="12"/>
+      <c r="T90" s="12" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="91" spans="1:20" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="4">
@@ -5210,13 +5250,13 @@
         <v>45126</v>
       </c>
       <c r="G91" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="H91" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="I91" s="8" t="s">
         <v>288</v>
-      </c>
-      <c r="H91" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="I91" s="8" t="s">
-        <v>290</v>
       </c>
       <c r="J91" s="9" t="s">
         <v>24</v>
@@ -5254,13 +5294,13 @@
         <v>45126</v>
       </c>
       <c r="G92" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="H92" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="I92" s="8" t="s">
         <v>291</v>
-      </c>
-      <c r="H92" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="I92" s="8" t="s">
-        <v>293</v>
       </c>
       <c r="J92" s="9" t="s">
         <v>24</v>
@@ -5308,13 +5348,13 @@
         <v>45126</v>
       </c>
       <c r="G93" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="H93" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="I93" s="8" t="s">
         <v>294</v>
-      </c>
-      <c r="H93" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="I93" s="8" t="s">
-        <v>296</v>
       </c>
       <c r="J93" s="9" t="s">
         <v>24</v>
@@ -5362,13 +5402,13 @@
         <v>45126</v>
       </c>
       <c r="G94" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="H94" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="I94" s="8" t="s">
         <v>297</v>
-      </c>
-      <c r="H94" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="I94" s="8" t="s">
-        <v>299</v>
       </c>
       <c r="J94" s="9" t="s">
         <v>24</v>
@@ -5416,13 +5456,13 @@
         <v>45126</v>
       </c>
       <c r="G95" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="H95" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="I95" s="8" t="s">
         <v>300</v>
-      </c>
-      <c r="H95" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="I95" s="8" t="s">
-        <v>302</v>
       </c>
       <c r="J95" s="9" t="s">
         <v>24</v>
@@ -5470,13 +5510,13 @@
         <v>45126</v>
       </c>
       <c r="G96" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="H96" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="I96" s="8" t="s">
         <v>303</v>
-      </c>
-      <c r="H96" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="I96" s="8" t="s">
-        <v>305</v>
       </c>
       <c r="J96" s="9" t="s">
         <v>24</v>
@@ -5524,13 +5564,13 @@
         <v>45126</v>
       </c>
       <c r="G97" s="17" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H97" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="I97" s="8" t="s">
         <v>306</v>
-      </c>
-      <c r="I97" s="8" t="s">
-        <v>308</v>
       </c>
       <c r="J97" s="9" t="s">
         <v>24</v>
@@ -5616,13 +5656,13 @@
         <v>45126</v>
       </c>
       <c r="G99" s="17" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H99" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="I99" s="8" t="s">
         <v>309</v>
-      </c>
-      <c r="I99" s="8" t="s">
-        <v>311</v>
       </c>
       <c r="J99" s="9" t="s">
         <v>24</v>
@@ -5670,13 +5710,13 @@
         <v>45126</v>
       </c>
       <c r="G100" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="H100" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="I100" s="8" t="s">
         <v>312</v>
-      </c>
-      <c r="H100" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="I100" s="8" t="s">
-        <v>314</v>
       </c>
       <c r="J100" s="9" t="s">
         <v>24</v>
@@ -5724,13 +5764,13 @@
         <v>45127</v>
       </c>
       <c r="G101" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="H101" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="I101" s="8" t="s">
         <v>315</v>
-      </c>
-      <c r="H101" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="I101" s="8" t="s">
-        <v>317</v>
       </c>
       <c r="J101" s="9" t="s">
         <v>24</v>
@@ -5778,13 +5818,13 @@
         <v>45127</v>
       </c>
       <c r="G102" s="17" t="s">
+        <v>316</v>
+      </c>
+      <c r="H102" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="I102" s="8" t="s">
         <v>318</v>
-      </c>
-      <c r="H102" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="I102" s="8" t="s">
-        <v>320</v>
       </c>
       <c r="J102" s="9" t="s">
         <v>24</v>
@@ -5870,13 +5910,13 @@
         <v>45127</v>
       </c>
       <c r="G104" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="H104" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="I104" s="8" t="s">
         <v>321</v>
-      </c>
-      <c r="H104" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="I104" s="8" t="s">
-        <v>323</v>
       </c>
       <c r="J104" s="9" t="s">
         <v>24</v>
@@ -6080,7 +6120,7 @@
         <v>145</v>
       </c>
       <c r="K109" s="9" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="L109" s="9"/>
       <c r="M109" s="9"/>
@@ -6114,13 +6154,13 @@
         <v>45127</v>
       </c>
       <c r="G110" s="17" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H110" s="8" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="I110" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J110" s="9" t="s">
         <v>24</v>
@@ -6152,7 +6192,6 @@
   <autoFilter ref="A7:T110" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="2">
       <filters>
-        <filter val="RAD"/>
         <filter val="RSA"/>
       </filters>
     </filterColumn>

--- a/GATEWAY/A1#111ESCXXXXXXXX/E-SC_SRL/RADX/V.9/report-checklist.xlsx
+++ b/GATEWAY/A1#111ESCXXXXXXXX/E-SC_SRL/RADX/V.9/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\inetpub\wwwroot\RadX_CRTF\RadX_CRTF\RadX_CRTF\temp\ACCREDITAMENTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C63FCD-4C44-4787-BED5-C817A8195745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D264D3F4-E373-4F07-86DA-63030A24D4C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="333">
   <si>
     <t>ID</t>
   </si>
@@ -1190,16 +1190,6 @@
 I campi del token JWT possono essere valorizzati in maniera errata ma non possono essere mancanti</t>
   </si>
   <si>
-    <t xml:space="preserve">
-2023-07-19T15:22:38Z</t>
-  </si>
-  <si>
-    <t>882a4cc1fca1f91a</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.150.4.4.afe2084b775c67bf43b22fc6f71bce05e9832566674e6d0bf97abc4741728b3e.18f93012b0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>Nel caso l'azienda decida di rendere questa tipologia di errore bloccante: "Errore di validazione del documento [contenuto "title" e "detail" dell'errore]. Prima di procedere si prega di contattare l'assistenza. ".
 Nel caso l'azienda decida di rendere questa tipologia di errore visibile ma non bloccante: "Errore di validazione del documento [contenuto "title" e "detail" dell'errore]. Si prega di contattare l'assistenza. Si vuole proseguire?"</t>
   </si>
@@ -1349,6 +1339,12 @@
   </si>
   <si>
     <t>2023-07-19T16:03:38Z</t>
+  </si>
+  <si>
+    <t>e56ebc58ee66b7ec</t>
+  </si>
+  <si>
+    <t>2023-07-21T17:55:38Z</t>
   </si>
 </sst>
 </file>
@@ -2007,10 +2003,10 @@
   <dimension ref="A1:T110"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="3" ySplit="7" topLeftCell="D88" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="7" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="I90" sqref="I90"/>
+      <selection pane="bottomRight" activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2264,7 +2260,7 @@
       <c r="S11" s="11"/>
       <c r="T11" s="12"/>
     </row>
-    <row r="12" spans="1:20" s="26" customFormat="1" ht="210.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" s="26" customFormat="1" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="18">
         <v>11</v>
       </c>
@@ -2308,7 +2304,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="210.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -2352,7 +2348,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="210.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -2390,7 +2386,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="210.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -2588,7 +2584,7 @@
       <c r="S20" s="11"/>
       <c r="T20" s="12"/>
     </row>
-    <row r="21" spans="1:20" ht="210.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" ht="210.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>31</v>
       </c>
@@ -2744,7 +2740,7 @@
       <c r="S24" s="11"/>
       <c r="T24" s="12"/>
     </row>
-    <row r="25" spans="1:20" ht="210.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>39</v>
       </c>
@@ -2815,16 +2811,16 @@
         <v>41</v>
       </c>
       <c r="F26" s="7">
-        <v>45126</v>
+        <v>45128</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>281</v>
+        <v>332</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>282</v>
+        <v>331</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>283</v>
+        <v>34</v>
       </c>
       <c r="J26" s="9" t="s">
         <v>24</v>
@@ -2837,7 +2833,7 @@
         <v>24</v>
       </c>
       <c r="N26" s="9" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="O26" s="9" t="s">
         <v>24</v>
@@ -2916,7 +2912,7 @@
       <c r="S28" s="11"/>
       <c r="T28" s="12"/>
     </row>
-    <row r="29" spans="1:20" ht="142.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" ht="142.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>47</v>
       </c>
@@ -3416,7 +3412,7 @@
       <c r="S43" s="11"/>
       <c r="T43" s="12"/>
     </row>
-    <row r="44" spans="1:20" s="26" customFormat="1" ht="210.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20" s="26" customFormat="1" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="18">
         <v>75</v>
       </c>
@@ -3470,7 +3466,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:20" s="26" customFormat="1" ht="210.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:20" s="26" customFormat="1" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="18">
         <v>76</v>
       </c>
@@ -3524,7 +3520,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="210.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:20" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>77</v>
       </c>
@@ -3578,7 +3574,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="210.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>78</v>
       </c>
@@ -3632,7 +3628,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="1:20" s="26" customFormat="1" ht="210.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:20" s="26" customFormat="1" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="18">
         <v>79</v>
       </c>
@@ -3686,7 +3682,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="210.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:20" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>80</v>
       </c>
@@ -3740,7 +3736,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="180.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:20" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>81</v>
       </c>
@@ -3778,7 +3774,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="180.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:20" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>82</v>
       </c>
@@ -3816,7 +3812,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="52" spans="1:20" s="26" customFormat="1" ht="210.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:20" s="26" customFormat="1" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="18">
         <v>83</v>
       </c>
@@ -3870,7 +3866,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="53" spans="1:20" s="26" customFormat="1" ht="210.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:20" s="26" customFormat="1" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="18">
         <v>84</v>
       </c>
@@ -3924,7 +3920,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="54" spans="1:20" s="26" customFormat="1" ht="210.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:20" s="26" customFormat="1" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="18">
         <v>85</v>
       </c>
@@ -3978,7 +3974,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="210.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:20" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>86</v>
       </c>
@@ -4032,7 +4028,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="195.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:20" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>87</v>
       </c>
@@ -4070,7 +4066,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="180.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:20" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>88</v>
       </c>
@@ -4108,7 +4104,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="165.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:20" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>89</v>
       </c>
@@ -4146,7 +4142,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="165.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:20" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>90</v>
       </c>
@@ -4184,7 +4180,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="60" spans="1:20" ht="180.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:20" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>91</v>
       </c>
@@ -4222,7 +4218,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="180.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:20" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
         <v>92</v>
       </c>
@@ -4260,7 +4256,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="180.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:20" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>93</v>
       </c>
@@ -5118,13 +5114,13 @@
         <v>45126</v>
       </c>
       <c r="G88" s="8" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="H88" s="8" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="I88" s="8" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="J88" s="9" t="s">
         <v>24</v>
@@ -5162,13 +5158,13 @@
         <v>45128</v>
       </c>
       <c r="G89" s="8" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="H89" s="8" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="I89" s="8" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="J89" s="9" t="s">
         <v>24</v>
@@ -5206,13 +5202,13 @@
         <v>45128</v>
       </c>
       <c r="G90" s="8" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="H90" s="8" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="I90" s="8" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="J90" s="9" t="s">
         <v>24</v>
@@ -5250,13 +5246,13 @@
         <v>45126</v>
       </c>
       <c r="G91" s="8" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="H91" s="8" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I91" s="8" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="J91" s="9" t="s">
         <v>24</v>
@@ -5294,13 +5290,13 @@
         <v>45126</v>
       </c>
       <c r="G92" s="17" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="H92" s="8" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="I92" s="8" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="J92" s="9" t="s">
         <v>24</v>
@@ -5348,13 +5344,13 @@
         <v>45126</v>
       </c>
       <c r="G93" s="17" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H93" s="8" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="I93" s="8" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="J93" s="9" t="s">
         <v>24</v>
@@ -5402,13 +5398,13 @@
         <v>45126</v>
       </c>
       <c r="G94" s="17" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="H94" s="8" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="I94" s="8" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="J94" s="9" t="s">
         <v>24</v>
@@ -5456,13 +5452,13 @@
         <v>45126</v>
       </c>
       <c r="G95" s="17" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="H95" s="8" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I95" s="8" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="J95" s="9" t="s">
         <v>24</v>
@@ -5510,13 +5506,13 @@
         <v>45126</v>
       </c>
       <c r="G96" s="17" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H96" s="8" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="I96" s="8" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="J96" s="9" t="s">
         <v>24</v>
@@ -5564,13 +5560,13 @@
         <v>45126</v>
       </c>
       <c r="G97" s="17" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="H97" s="8" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="I97" s="8" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="J97" s="9" t="s">
         <v>24</v>
@@ -5656,13 +5652,13 @@
         <v>45126</v>
       </c>
       <c r="G99" s="17" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="H99" s="8" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="I99" s="8" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="J99" s="9" t="s">
         <v>24</v>
@@ -5710,13 +5706,13 @@
         <v>45126</v>
       </c>
       <c r="G100" s="17" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="H100" s="8" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="I100" s="8" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="J100" s="9" t="s">
         <v>24</v>
@@ -5764,13 +5760,13 @@
         <v>45127</v>
       </c>
       <c r="G101" s="17" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="H101" s="8" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="I101" s="8" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="J101" s="9" t="s">
         <v>24</v>
@@ -5818,13 +5814,13 @@
         <v>45127</v>
       </c>
       <c r="G102" s="17" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="H102" s="8" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="I102" s="8" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="J102" s="9" t="s">
         <v>24</v>
@@ -5910,13 +5906,13 @@
         <v>45127</v>
       </c>
       <c r="G104" s="17" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="H104" s="8" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="I104" s="8" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="J104" s="9" t="s">
         <v>24</v>
@@ -6120,7 +6116,7 @@
         <v>145</v>
       </c>
       <c r="K109" s="9" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="L109" s="9"/>
       <c r="M109" s="9"/>
@@ -6154,13 +6150,13 @@
         <v>45127</v>
       </c>
       <c r="G110" s="17" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H110" s="8" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="I110" s="8" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="J110" s="9" t="s">
         <v>24</v>
@@ -6192,6 +6188,7 @@
   <autoFilter ref="A7:T110" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="2">
       <filters>
+        <filter val="RAD"/>
         <filter val="RSA"/>
       </filters>
     </filterColumn>

--- a/GATEWAY/A1#111ESCXXXXXXXX/E-SC_SRL/RADX/V.9/report-checklist.xlsx
+++ b/GATEWAY/A1#111ESCXXXXXXXX/E-SC_SRL/RADX/V.9/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\inetpub\wwwroot\RadX_CRTF\RadX_CRTF\RadX_CRTF\temp\ACCREDITAMENTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D264D3F4-E373-4F07-86DA-63030A24D4C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A6B96DC-CBA9-4487-8FA7-B07F5B12B8CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1200,12 +1200,6 @@
     <t>2.16.840.1.113883.2.9.2.150.4.4.afe2084b775c67bf43b22fc6f71bce05e9832566674e6d0bf97abc4741728b3e.c1a45a6d91^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>3d4deb3288eafdaf</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.150.4.4.afe2084b775c67bf43b22fc6f71bce05e9832566674e6d0bf97abc4741728b3e.8e32199830^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>2023-07-19T16:51:24Z</t>
   </si>
   <si>
@@ -1317,27 +1311,6 @@
     <t>2023-07-20T10:07:48Z</t>
   </si>
   <si>
-    <t>eabbca322d4eb3cd</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.150.4.4.afe2084b775c67bf43b22fc6f71bce05e9832566674e6d0bf97abc4741728b3e.9915c14e5d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>3ba4b35ac5f4beb3</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.150.4.4.afe2084b775c67bf43b22fc6f71bce05e9832566674e6d0bf97abc4741728b3e.8a07c3deeb^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-07-21T08:58:32Z</t>
-  </si>
-  <si>
-    <t>2023-07-21T09:11:15Z</t>
-  </si>
-  <si>
-    <t>2023-07-19T16:34:05Z</t>
-  </si>
-  <si>
     <t>2023-07-19T16:03:38Z</t>
   </si>
   <si>
@@ -1345,6 +1318,33 @@
   </si>
   <si>
     <t>2023-07-21T17:55:38Z</t>
+  </si>
+  <si>
+    <t>2023-07-26T15:31:25Z</t>
+  </si>
+  <si>
+    <t>5bc7c292711c0f75</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.afe2084b775c67bf43b22fc6f71bce05e9832566674e6d0bf97abc4741728b3e.4d0fa5a91d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-07-26T15:50:32Z</t>
+  </si>
+  <si>
+    <t>1ee5329dd5257379</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.afe2084b775c67bf43b22fc6f71bce05e9832566674e6d0bf97abc4741728b3e.2849c1db4b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-07-26T16:00:15Z</t>
+  </si>
+  <si>
+    <t>9bf9837cac819b08</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.afe2084b775c67bf43b22fc6f71bce05e9832566674e6d0bf97abc4741728b3e.ea5275723b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -2003,10 +2003,10 @@
   <dimension ref="A1:T110"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="3" ySplit="7" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="7" topLeftCell="D53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="I26" sqref="I26"/>
+      <selection pane="bottomRight" activeCell="I90" sqref="I90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2814,10 +2814,10 @@
         <v>45128</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="I26" s="8" t="s">
         <v>34</v>
@@ -5114,7 +5114,7 @@
         <v>45126</v>
       </c>
       <c r="G88" s="8" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="H88" s="8" t="s">
         <v>282</v>
@@ -5155,16 +5155,16 @@
         <v>206</v>
       </c>
       <c r="F89" s="7">
-        <v>45128</v>
+        <v>45133</v>
       </c>
       <c r="G89" s="8" t="s">
         <v>327</v>
       </c>
       <c r="H89" s="8" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="I89" s="8" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="J89" s="9" t="s">
         <v>24</v>
@@ -5199,16 +5199,16 @@
         <v>208</v>
       </c>
       <c r="F90" s="7">
-        <v>45128</v>
+        <v>45133</v>
       </c>
       <c r="G90" s="8" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="H90" s="8" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="I90" s="8" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="J90" s="9" t="s">
         <v>24</v>
@@ -5243,16 +5243,16 @@
         <v>210</v>
       </c>
       <c r="F91" s="7">
-        <v>45126</v>
+        <v>45133</v>
       </c>
       <c r="G91" s="8" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="H91" s="8" t="s">
-        <v>284</v>
+        <v>325</v>
       </c>
       <c r="I91" s="8" t="s">
-        <v>285</v>
+        <v>326</v>
       </c>
       <c r="J91" s="9" t="s">
         <v>24</v>
@@ -5290,13 +5290,13 @@
         <v>45126</v>
       </c>
       <c r="G92" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="H92" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="I92" s="8" t="s">
         <v>286</v>
-      </c>
-      <c r="H92" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="I92" s="8" t="s">
-        <v>288</v>
       </c>
       <c r="J92" s="9" t="s">
         <v>24</v>
@@ -5344,13 +5344,13 @@
         <v>45126</v>
       </c>
       <c r="G93" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="H93" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="I93" s="8" t="s">
         <v>289</v>
-      </c>
-      <c r="H93" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="I93" s="8" t="s">
-        <v>291</v>
       </c>
       <c r="J93" s="9" t="s">
         <v>24</v>
@@ -5398,13 +5398,13 @@
         <v>45126</v>
       </c>
       <c r="G94" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="H94" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="I94" s="8" t="s">
         <v>292</v>
-      </c>
-      <c r="H94" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="I94" s="8" t="s">
-        <v>294</v>
       </c>
       <c r="J94" s="9" t="s">
         <v>24</v>
@@ -5452,13 +5452,13 @@
         <v>45126</v>
       </c>
       <c r="G95" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="H95" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="I95" s="8" t="s">
         <v>295</v>
-      </c>
-      <c r="H95" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="I95" s="8" t="s">
-        <v>297</v>
       </c>
       <c r="J95" s="9" t="s">
         <v>24</v>
@@ -5506,13 +5506,13 @@
         <v>45126</v>
       </c>
       <c r="G96" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="H96" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="I96" s="8" t="s">
         <v>298</v>
-      </c>
-      <c r="H96" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="I96" s="8" t="s">
-        <v>300</v>
       </c>
       <c r="J96" s="9" t="s">
         <v>24</v>
@@ -5560,13 +5560,13 @@
         <v>45126</v>
       </c>
       <c r="G97" s="17" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H97" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="I97" s="8" t="s">
         <v>301</v>
-      </c>
-      <c r="I97" s="8" t="s">
-        <v>303</v>
       </c>
       <c r="J97" s="9" t="s">
         <v>24</v>
@@ -5652,13 +5652,13 @@
         <v>45126</v>
       </c>
       <c r="G99" s="17" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H99" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="I99" s="8" t="s">
         <v>304</v>
-      </c>
-      <c r="I99" s="8" t="s">
-        <v>306</v>
       </c>
       <c r="J99" s="9" t="s">
         <v>24</v>
@@ -5706,13 +5706,13 @@
         <v>45126</v>
       </c>
       <c r="G100" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="H100" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="I100" s="8" t="s">
         <v>307</v>
-      </c>
-      <c r="H100" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="I100" s="8" t="s">
-        <v>309</v>
       </c>
       <c r="J100" s="9" t="s">
         <v>24</v>
@@ -5760,13 +5760,13 @@
         <v>45127</v>
       </c>
       <c r="G101" s="17" t="s">
+        <v>308</v>
+      </c>
+      <c r="H101" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="I101" s="8" t="s">
         <v>310</v>
-      </c>
-      <c r="H101" s="8" t="s">
-        <v>311</v>
-      </c>
-      <c r="I101" s="8" t="s">
-        <v>312</v>
       </c>
       <c r="J101" s="9" t="s">
         <v>24</v>
@@ -5814,13 +5814,13 @@
         <v>45127</v>
       </c>
       <c r="G102" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="H102" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="I102" s="8" t="s">
         <v>313</v>
-      </c>
-      <c r="H102" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="I102" s="8" t="s">
-        <v>315</v>
       </c>
       <c r="J102" s="9" t="s">
         <v>24</v>
@@ -5906,13 +5906,13 @@
         <v>45127</v>
       </c>
       <c r="G104" s="17" t="s">
+        <v>314</v>
+      </c>
+      <c r="H104" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="I104" s="8" t="s">
         <v>316</v>
-      </c>
-      <c r="H104" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="I104" s="8" t="s">
-        <v>318</v>
       </c>
       <c r="J104" s="9" t="s">
         <v>24</v>
@@ -6116,7 +6116,7 @@
         <v>145</v>
       </c>
       <c r="K109" s="9" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="L109" s="9"/>
       <c r="M109" s="9"/>
@@ -6150,13 +6150,13 @@
         <v>45127</v>
       </c>
       <c r="G110" s="17" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H110" s="8" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="I110" s="8" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="J110" s="9" t="s">
         <v>24</v>

--- a/GATEWAY/A1#111ESCXXXXXXXX/E-SC_SRL/RADX/V.9/report-checklist.xlsx
+++ b/GATEWAY/A1#111ESCXXXXXXXX/E-SC_SRL/RADX/V.9/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\inetpub\wwwroot\RadX_CRTF\RadX_CRTF\RadX_CRTF\temp\ACCREDITAMENTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A6B96DC-CBA9-4487-8FA7-B07F5B12B8CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E2DC9C-EE52-4F0A-B066-D704E20FEE33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="334">
   <si>
     <t>ID</t>
   </si>
@@ -1059,127 +1059,7 @@
     <t>subject_application_version: V.9</t>
   </si>
   <si>
-    <t>2023-05-02T17:23:37Z</t>
-  </si>
-  <si>
-    <t>295a9422d2c82243</t>
-  </si>
-  <si>
-    <t>2023-05-02T17:34:08Z</t>
-  </si>
-  <si>
-    <t>f54ee374aca80caf</t>
-  </si>
-  <si>
-    <t>2023-05-02T17:37:31Z</t>
-  </si>
-  <si>
-    <t>405223f8f12a151c</t>
-  </si>
-  <si>
-    <t>2023-05-02T17:41:24Z</t>
-  </si>
-  <si>
-    <t>4e042dd44777e71f</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.150.4.4.afe2084b775c67bf43b22fc6f71bce05e9832566674e6d0bf97abc4741728b3e.50b32eabaa^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.150.4.4.afe2084b775c67bf43b22fc6f71bce05e9832566674e6d0bf97abc4741728b3e.8ff796015c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-05-02T17:51:43Z</t>
-  </si>
-  <si>
-    <t>213083966c132537</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.150.4.4.afe2084b775c67bf43b22fc6f71bce05e9832566674e6d0bf97abc4741728b3e.267eed0ca1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-05-02T17:54:09Z</t>
-  </si>
-  <si>
-    <t>413d9894f333bb9a</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.150.4.4.afe2084b775c67bf43b22fc6f71bce05e9832566674e6d0bf97abc4741728b3e.d88b52af58^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-05-02T18:11:53Z</t>
-  </si>
-  <si>
-    <t>a9c334d17c355bb2</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.150.4.4.afe2084b775c67bf43b22fc6f71bce05e9832566674e6d0bf97abc4741728b3e.515887b831^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-05-02T18:23:23Z</t>
-  </si>
-  <si>
-    <t>9cef34a9a90a5107</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.150.4.4.afe2084b775c67bf43b22fc6f71bce05e9832566674e6d0bf97abc4741728b3e.1c77a783b4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-05-05T14:53:37Z</t>
-  </si>
-  <si>
-    <t>342589cd67c8a7f5</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.150.4.4.afe2084b775c67bf43b22fc6f71bce05e9832566674e6d0bf97abc4741728b3e.52126b3748^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-05-05T15:13:11Z</t>
-  </si>
-  <si>
-    <t>3b9353506d461cf7</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.150.4.4.afe2084b775c67bf43b22fc6f71bce05e9832566674e6d0bf97abc4741728b3e.2eb3de4dfd^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-05-05T15:17:34Z</t>
-  </si>
-  <si>
-    <t>57c13f2d6b3659d0</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.150.4.4.afe2084b775c67bf43b22fc6f71bce05e9832566674e6d0bf97abc4741728b3e.7a5c08c224^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-05-05T15:23:30Z</t>
-  </si>
-  <si>
-    <t>b697608f2500a53c</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.150.4.4.afe2084b775c67bf43b22fc6f71bce05e9832566674e6d0bf97abc4741728b3e.529699dc35^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>Partecipanti facoltatiti, qui ndi non gestiti</t>
-  </si>
-  <si>
-    <t>2023-05-05T15:34:23Z</t>
-  </si>
-  <si>
-    <t>49ce2760c91e21bf</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.150.4.4.afe2084b775c67bf43b22fc6f71bce05e9832566674e6d0bf97abc4741728b3e.ffd128a574^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-05-16T09:02:44Z</t>
-  </si>
-  <si>
-    <t>29a96fbe2b915bc8</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.150.4.4.afe2084b775c67bf43b22fc6f71bce05e9832566674e6d0bf97abc4741728b3e.04c58cec4c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>Visualizzazione di un messaggio di errore al serizio dell'operatore, che sarà inoltre memorizzzato in un file di log. 
@@ -1345,6 +1225,129 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.150.4.4.afe2084b775c67bf43b22fc6f71bce05e9832566674e6d0bf97abc4741728b3e.ea5275723b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-07-26T17:15:37Z</t>
+  </si>
+  <si>
+    <t>5d94af5e32cbbb24</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.afe2084b775c67bf43b22fc6f71bce05e9832566674e6d0bf97abc4741728b3e.ed9ea28d22^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-07-26T17:20:02Z</t>
+  </si>
+  <si>
+    <t>bb9407324b5e0058</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.afe2084b775c67bf43b22fc6f71bce05e9832566674e6d0bf97abc4741728b3e.0114d3fb73^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-07-26T17:23:08Z</t>
+  </si>
+  <si>
+    <t>9c9a125b2b2b6a72</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.afe2084b775c67bf43b22fc6f71bce05e9832566674e6d0bf97abc4741728b3e.74f573d56c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-07-26T17:25:13Z</t>
+  </si>
+  <si>
+    <t>b0b9f2ee08ab3862</t>
+  </si>
+  <si>
+    <t>2023-07-26T17:38:24Z</t>
+  </si>
+  <si>
+    <t>b34ec415c603d139</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.afe2084b775c67bf43b22fc6f71bce05e9832566674e6d0bf97abc4741728b3e.8f5de269b6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-07-26T17:40:43Z</t>
+  </si>
+  <si>
+    <t>0a0e203ac8d229c6</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.afe2084b775c67bf43b22fc6f71bce05e9832566674e6d0bf97abc4741728b3e.4d391a9731^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-07-26T17:44:11Z</t>
+  </si>
+  <si>
+    <t>e9861ae649bc67af</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.afe2084b775c67bf43b22fc6f71bce05e9832566674e6d0bf97abc4741728b3e.9af43c44d4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-07-26T17:49:34Z</t>
+  </si>
+  <si>
+    <t>ae798333388cd6ef</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.afe2084b775c67bf43b22fc6f71bce05e9832566674e6d0bf97abc4741728b3e.076e6f377b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>0dfa557db783626a</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.afe2084b775c67bf43b22fc6f71bce05e9832566674e6d0bf97abc4741728b3e.0ba3971d3c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>e1930fed699df637</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.afe2084b775c67bf43b22fc6f71bce05e9832566674e6d0bf97abc4741728b3e.2ce27fba04^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-07-26T17:59:53Z</t>
+  </si>
+  <si>
+    <t>c110ee2386d18c2e</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.afe2084b775c67bf43b22fc6f71bce05e9832566674e6d0bf97abc4741728b3e.371c93e3a3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-07-26T18:01:44Z</t>
+  </si>
+  <si>
+    <t>82e78fa8963e4076</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.afe2084b775c67bf43b22fc6f71bce05e9832566674e6d0bf97abc4741728b3e.e7e7354a56^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-07-26T18:04:23Z</t>
+  </si>
+  <si>
+    <t>42c75c9c1c52fac3</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.afe2084b775c67bf43b22fc6f71bce05e9832566674e6d0bf97abc4741728b3e.e95177d435^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-07-26T18:10:23Z</t>
+  </si>
+  <si>
+    <t>3728489fb62dd5f8</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.afe2084b775c67bf43b22fc6f71bce05e9832566674e6d0bf97abc4741728b3e.be09ca5bdb^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-07-26T17:55:30Z</t>
+  </si>
+  <si>
+    <t>2023-07-26T17:52:09Z</t>
   </si>
 </sst>
 </file>
@@ -2003,10 +2006,10 @@
   <dimension ref="A1:T110"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="3" ySplit="7" topLeftCell="D53" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="7" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="I90" sqref="I90"/>
+      <selection pane="bottomRight" activeCell="I57" sqref="I57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2277,16 +2280,16 @@
         <v>28</v>
       </c>
       <c r="F12" s="21">
-        <v>45048</v>
+        <v>45133</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>238</v>
+        <v>293</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>239</v>
+        <v>294</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>247</v>
+        <v>295</v>
       </c>
       <c r="J12" s="22" t="s">
         <v>24</v>
@@ -2321,16 +2324,16 @@
         <v>151</v>
       </c>
       <c r="F13" s="7">
-        <v>45051</v>
+        <v>45133</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>260</v>
+        <v>296</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>261</v>
+        <v>297</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>262</v>
+        <v>298</v>
       </c>
       <c r="J13" s="9" t="s">
         <v>24</v>
@@ -2601,13 +2604,13 @@
         <v>33</v>
       </c>
       <c r="F21" s="7">
-        <v>45048</v>
+        <v>45133</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>240</v>
+        <v>302</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>241</v>
+        <v>303</v>
       </c>
       <c r="I21" s="8" t="s">
         <v>34</v>
@@ -2662,7 +2665,7 @@
         <v>145</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>280</v>
+        <v>240</v>
       </c>
       <c r="L22" s="9"/>
       <c r="M22" s="9"/>
@@ -2757,16 +2760,16 @@
         <v>41</v>
       </c>
       <c r="F25" s="7">
-        <v>45048</v>
+        <v>45133</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>242</v>
+        <v>299</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>243</v>
+        <v>300</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>34</v>
+        <v>301</v>
       </c>
       <c r="J25" s="9" t="s">
         <v>24</v>
@@ -2814,10 +2817,10 @@
         <v>45128</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>323</v>
+        <v>283</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>322</v>
+        <v>282</v>
       </c>
       <c r="I26" s="8" t="s">
         <v>34</v>
@@ -2833,7 +2836,7 @@
         <v>24</v>
       </c>
       <c r="N26" s="9" t="s">
-        <v>281</v>
+        <v>241</v>
       </c>
       <c r="O26" s="9" t="s">
         <v>24</v>
@@ -2929,7 +2932,7 @@
         <v>228</v>
       </c>
       <c r="F29" s="7">
-        <v>45072</v>
+        <v>45133</v>
       </c>
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
@@ -2943,7 +2946,7 @@
       <c r="N29" s="9"/>
       <c r="O29" s="9"/>
       <c r="P29" s="9" t="s">
-        <v>279</v>
+        <v>239</v>
       </c>
       <c r="Q29" s="9"/>
       <c r="R29" s="10" t="s">
@@ -2985,7 +2988,7 @@
       <c r="N30" s="9"/>
       <c r="O30" s="9"/>
       <c r="P30" s="9" t="s">
-        <v>279</v>
+        <v>239</v>
       </c>
       <c r="Q30" s="9"/>
       <c r="R30" s="10" t="s">
@@ -3429,16 +3432,16 @@
         <v>62</v>
       </c>
       <c r="F44" s="21">
-        <v>45048</v>
+        <v>45133</v>
       </c>
       <c r="G44" s="17" t="s">
-        <v>244</v>
+        <v>304</v>
       </c>
       <c r="H44" s="17" t="s">
-        <v>245</v>
+        <v>305</v>
       </c>
       <c r="I44" s="17" t="s">
-        <v>246</v>
+        <v>306</v>
       </c>
       <c r="J44" s="22" t="s">
         <v>24</v>
@@ -3483,16 +3486,16 @@
         <v>64</v>
       </c>
       <c r="F45" s="21">
-        <v>45048</v>
+        <v>45133</v>
       </c>
       <c r="G45" s="17" t="s">
-        <v>248</v>
+        <v>307</v>
       </c>
       <c r="H45" s="17" t="s">
-        <v>249</v>
+        <v>308</v>
       </c>
       <c r="I45" s="17" t="s">
-        <v>250</v>
+        <v>309</v>
       </c>
       <c r="J45" s="22" t="s">
         <v>24</v>
@@ -3537,16 +3540,16 @@
         <v>66</v>
       </c>
       <c r="F46" s="7">
-        <v>45051</v>
+        <v>45133</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>263</v>
+        <v>310</v>
       </c>
       <c r="H46" s="8" t="s">
-        <v>264</v>
+        <v>311</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>265</v>
+        <v>312</v>
       </c>
       <c r="J46" s="9" t="s">
         <v>24</v>
@@ -3591,16 +3594,16 @@
         <v>68</v>
       </c>
       <c r="F47" s="7">
-        <v>45051</v>
+        <v>45133</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>266</v>
+        <v>313</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>267</v>
+        <v>314</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>268</v>
+        <v>315</v>
       </c>
       <c r="J47" s="9" t="s">
         <v>24</v>
@@ -3645,16 +3648,16 @@
         <v>70</v>
       </c>
       <c r="F48" s="21">
-        <v>45048</v>
+        <v>45133</v>
       </c>
       <c r="G48" s="17" t="s">
-        <v>251</v>
+        <v>333</v>
       </c>
       <c r="H48" s="17" t="s">
-        <v>252</v>
+        <v>316</v>
       </c>
       <c r="I48" s="17" t="s">
-        <v>253</v>
+        <v>317</v>
       </c>
       <c r="J48" s="22" t="s">
         <v>24</v>
@@ -3699,16 +3702,16 @@
         <v>72</v>
       </c>
       <c r="F49" s="7">
-        <v>45051</v>
+        <v>45133</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>269</v>
+        <v>332</v>
       </c>
       <c r="H49" s="8" t="s">
-        <v>270</v>
+        <v>318</v>
       </c>
       <c r="I49" s="8" t="s">
-        <v>271</v>
+        <v>319</v>
       </c>
       <c r="J49" s="9" t="s">
         <v>24</v>
@@ -3760,7 +3763,7 @@
         <v>145</v>
       </c>
       <c r="K50" s="9" t="s">
-        <v>272</v>
+        <v>238</v>
       </c>
       <c r="L50" s="9"/>
       <c r="M50" s="9"/>
@@ -3829,16 +3832,16 @@
         <v>76</v>
       </c>
       <c r="F52" s="21">
-        <v>45048</v>
+        <v>45133</v>
       </c>
       <c r="G52" s="17" t="s">
-        <v>254</v>
+        <v>320</v>
       </c>
       <c r="H52" s="17" t="s">
-        <v>255</v>
+        <v>321</v>
       </c>
       <c r="I52" s="17" t="s">
-        <v>256</v>
+        <v>322</v>
       </c>
       <c r="J52" s="22" t="s">
         <v>24</v>
@@ -3883,16 +3886,16 @@
         <v>78</v>
       </c>
       <c r="F53" s="21">
-        <v>45062</v>
+        <v>45133</v>
       </c>
       <c r="G53" s="17" t="s">
-        <v>276</v>
+        <v>323</v>
       </c>
       <c r="H53" s="17" t="s">
-        <v>277</v>
+        <v>324</v>
       </c>
       <c r="I53" s="17" t="s">
-        <v>278</v>
+        <v>325</v>
       </c>
       <c r="J53" s="22" t="s">
         <v>24</v>
@@ -3937,16 +3940,16 @@
         <v>80</v>
       </c>
       <c r="F54" s="21">
-        <v>45048</v>
+        <v>45133</v>
       </c>
       <c r="G54" s="17" t="s">
-        <v>257</v>
+        <v>326</v>
       </c>
       <c r="H54" s="17" t="s">
-        <v>258</v>
+        <v>327</v>
       </c>
       <c r="I54" s="17" t="s">
-        <v>259</v>
+        <v>328</v>
       </c>
       <c r="J54" s="22" t="s">
         <v>24</v>
@@ -3991,16 +3994,16 @@
         <v>174</v>
       </c>
       <c r="F55" s="7">
-        <v>45051</v>
+        <v>45133</v>
       </c>
       <c r="G55" s="17" t="s">
-        <v>273</v>
+        <v>329</v>
       </c>
       <c r="H55" s="8" t="s">
-        <v>274</v>
+        <v>330</v>
       </c>
       <c r="I55" s="8" t="s">
-        <v>275</v>
+        <v>331</v>
       </c>
       <c r="J55" s="9" t="s">
         <v>24</v>
@@ -5114,13 +5117,13 @@
         <v>45126</v>
       </c>
       <c r="G88" s="8" t="s">
-        <v>321</v>
+        <v>281</v>
       </c>
       <c r="H88" s="8" t="s">
-        <v>282</v>
+        <v>242</v>
       </c>
       <c r="I88" s="8" t="s">
-        <v>283</v>
+        <v>243</v>
       </c>
       <c r="J88" s="9" t="s">
         <v>24</v>
@@ -5158,13 +5161,13 @@
         <v>45133</v>
       </c>
       <c r="G89" s="8" t="s">
-        <v>327</v>
+        <v>287</v>
       </c>
       <c r="H89" s="8" t="s">
-        <v>328</v>
+        <v>288</v>
       </c>
       <c r="I89" s="8" t="s">
-        <v>329</v>
+        <v>289</v>
       </c>
       <c r="J89" s="9" t="s">
         <v>24</v>
@@ -5202,13 +5205,13 @@
         <v>45133</v>
       </c>
       <c r="G90" s="8" t="s">
-        <v>330</v>
+        <v>290</v>
       </c>
       <c r="H90" s="8" t="s">
-        <v>331</v>
+        <v>291</v>
       </c>
       <c r="I90" s="8" t="s">
-        <v>332</v>
+        <v>292</v>
       </c>
       <c r="J90" s="9" t="s">
         <v>24</v>
@@ -5246,13 +5249,13 @@
         <v>45133</v>
       </c>
       <c r="G91" s="8" t="s">
-        <v>324</v>
+        <v>284</v>
       </c>
       <c r="H91" s="8" t="s">
-        <v>325</v>
+        <v>285</v>
       </c>
       <c r="I91" s="8" t="s">
-        <v>326</v>
+        <v>286</v>
       </c>
       <c r="J91" s="9" t="s">
         <v>24</v>
@@ -5290,13 +5293,13 @@
         <v>45126</v>
       </c>
       <c r="G92" s="17" t="s">
-        <v>284</v>
+        <v>244</v>
       </c>
       <c r="H92" s="8" t="s">
-        <v>285</v>
+        <v>245</v>
       </c>
       <c r="I92" s="8" t="s">
-        <v>286</v>
+        <v>246</v>
       </c>
       <c r="J92" s="9" t="s">
         <v>24</v>
@@ -5344,13 +5347,13 @@
         <v>45126</v>
       </c>
       <c r="G93" s="17" t="s">
-        <v>287</v>
+        <v>247</v>
       </c>
       <c r="H93" s="8" t="s">
-        <v>288</v>
+        <v>248</v>
       </c>
       <c r="I93" s="8" t="s">
-        <v>289</v>
+        <v>249</v>
       </c>
       <c r="J93" s="9" t="s">
         <v>24</v>
@@ -5398,13 +5401,13 @@
         <v>45126</v>
       </c>
       <c r="G94" s="17" t="s">
-        <v>290</v>
+        <v>250</v>
       </c>
       <c r="H94" s="8" t="s">
-        <v>291</v>
+        <v>251</v>
       </c>
       <c r="I94" s="8" t="s">
-        <v>292</v>
+        <v>252</v>
       </c>
       <c r="J94" s="9" t="s">
         <v>24</v>
@@ -5452,13 +5455,13 @@
         <v>45126</v>
       </c>
       <c r="G95" s="17" t="s">
-        <v>293</v>
+        <v>253</v>
       </c>
       <c r="H95" s="8" t="s">
-        <v>294</v>
+        <v>254</v>
       </c>
       <c r="I95" s="8" t="s">
-        <v>295</v>
+        <v>255</v>
       </c>
       <c r="J95" s="9" t="s">
         <v>24</v>
@@ -5506,13 +5509,13 @@
         <v>45126</v>
       </c>
       <c r="G96" s="17" t="s">
-        <v>296</v>
+        <v>256</v>
       </c>
       <c r="H96" s="8" t="s">
-        <v>297</v>
+        <v>257</v>
       </c>
       <c r="I96" s="8" t="s">
-        <v>298</v>
+        <v>258</v>
       </c>
       <c r="J96" s="9" t="s">
         <v>24</v>
@@ -5560,13 +5563,13 @@
         <v>45126</v>
       </c>
       <c r="G97" s="17" t="s">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="H97" s="8" t="s">
-        <v>299</v>
+        <v>259</v>
       </c>
       <c r="I97" s="8" t="s">
-        <v>301</v>
+        <v>261</v>
       </c>
       <c r="J97" s="9" t="s">
         <v>24</v>
@@ -5652,13 +5655,13 @@
         <v>45126</v>
       </c>
       <c r="G99" s="17" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="H99" s="8" t="s">
-        <v>302</v>
+        <v>262</v>
       </c>
       <c r="I99" s="8" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="J99" s="9" t="s">
         <v>24</v>
@@ -5706,13 +5709,13 @@
         <v>45126</v>
       </c>
       <c r="G100" s="17" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="H100" s="8" t="s">
-        <v>306</v>
+        <v>266</v>
       </c>
       <c r="I100" s="8" t="s">
-        <v>307</v>
+        <v>267</v>
       </c>
       <c r="J100" s="9" t="s">
         <v>24</v>
@@ -5760,13 +5763,13 @@
         <v>45127</v>
       </c>
       <c r="G101" s="17" t="s">
-        <v>308</v>
+        <v>268</v>
       </c>
       <c r="H101" s="8" t="s">
-        <v>309</v>
+        <v>269</v>
       </c>
       <c r="I101" s="8" t="s">
-        <v>310</v>
+        <v>270</v>
       </c>
       <c r="J101" s="9" t="s">
         <v>24</v>
@@ -5814,13 +5817,13 @@
         <v>45127</v>
       </c>
       <c r="G102" s="17" t="s">
-        <v>311</v>
+        <v>271</v>
       </c>
       <c r="H102" s="8" t="s">
-        <v>312</v>
+        <v>272</v>
       </c>
       <c r="I102" s="8" t="s">
-        <v>313</v>
+        <v>273</v>
       </c>
       <c r="J102" s="9" t="s">
         <v>24</v>
@@ -5906,13 +5909,13 @@
         <v>45127</v>
       </c>
       <c r="G104" s="17" t="s">
-        <v>314</v>
+        <v>274</v>
       </c>
       <c r="H104" s="8" t="s">
-        <v>315</v>
+        <v>275</v>
       </c>
       <c r="I104" s="8" t="s">
-        <v>316</v>
+        <v>276</v>
       </c>
       <c r="J104" s="9" t="s">
         <v>24</v>
@@ -6116,7 +6119,7 @@
         <v>145</v>
       </c>
       <c r="K109" s="9" t="s">
-        <v>317</v>
+        <v>277</v>
       </c>
       <c r="L109" s="9"/>
       <c r="M109" s="9"/>
@@ -6150,13 +6153,13 @@
         <v>45127</v>
       </c>
       <c r="G110" s="17" t="s">
-        <v>320</v>
+        <v>280</v>
       </c>
       <c r="H110" s="8" t="s">
-        <v>318</v>
+        <v>278</v>
       </c>
       <c r="I110" s="8" t="s">
-        <v>319</v>
+        <v>279</v>
       </c>
       <c r="J110" s="9" t="s">
         <v>24</v>

--- a/GATEWAY/A1#111ESCXXXXXXXX/E-SC_SRL/RADX/V.9/report-checklist.xlsx
+++ b/GATEWAY/A1#111ESCXXXXXXXX/E-SC_SRL/RADX/V.9/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\inetpub\wwwroot\RadX_CRTF\RadX_CRTF\RadX_CRTF\temp\ACCREDITAMENTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E2DC9C-EE52-4F0A-B066-D704E20FEE33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E072FB-737C-4714-9CD0-CB3F5A379579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1200,33 +1200,6 @@
     <t>2023-07-21T17:55:38Z</t>
   </si>
   <si>
-    <t>2023-07-26T15:31:25Z</t>
-  </si>
-  <si>
-    <t>5bc7c292711c0f75</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.150.4.4.afe2084b775c67bf43b22fc6f71bce05e9832566674e6d0bf97abc4741728b3e.4d0fa5a91d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-07-26T15:50:32Z</t>
-  </si>
-  <si>
-    <t>1ee5329dd5257379</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.150.4.4.afe2084b775c67bf43b22fc6f71bce05e9832566674e6d0bf97abc4741728b3e.2849c1db4b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-07-26T16:00:15Z</t>
-  </si>
-  <si>
-    <t>9bf9837cac819b08</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.150.4.4.afe2084b775c67bf43b22fc6f71bce05e9832566674e6d0bf97abc4741728b3e.ea5275723b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>2023-07-26T17:15:37Z</t>
   </si>
   <si>
@@ -1348,6 +1321,33 @@
   </si>
   <si>
     <t>2023-07-26T17:52:09Z</t>
+  </si>
+  <si>
+    <t>2023-07-28T16:38:25Z</t>
+  </si>
+  <si>
+    <t>d7666b6fb17cbbb4</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.afe2084b775c67bf43b22fc6f71bce05e9832566674e6d0bf97abc4741728b3e.413990040c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-07-28T17:15:32Z</t>
+  </si>
+  <si>
+    <t>d7ee49729e9d936e</t>
+  </si>
+  <si>
+    <t>2023-07-28T17:19:15Z</t>
+  </si>
+  <si>
+    <t>9ed1e2e51f61203f</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.afe2084b775c67bf43b22fc6f71bce05e9832566674e6d0bf97abc4741728b3e.32f35b5c8e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.afe2084b775c67bf43b22fc6f71bce05e9832566674e6d0bf97abc4741728b3e.cd33c24bfb^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -2006,10 +2006,10 @@
   <dimension ref="A1:T110"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="3" ySplit="7" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="7" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="I57" sqref="I57"/>
+      <selection pane="bottomRight" activeCell="I91" sqref="I91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2283,13 +2283,13 @@
         <v>45133</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="J12" s="22" t="s">
         <v>24</v>
@@ -2327,13 +2327,13 @@
         <v>45133</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="J13" s="9" t="s">
         <v>24</v>
@@ -2607,10 +2607,10 @@
         <v>45133</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="I21" s="8" t="s">
         <v>34</v>
@@ -2763,13 +2763,13 @@
         <v>45133</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="J25" s="9" t="s">
         <v>24</v>
@@ -3435,13 +3435,13 @@
         <v>45133</v>
       </c>
       <c r="G44" s="17" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="H44" s="17" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="I44" s="17" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="J44" s="22" t="s">
         <v>24</v>
@@ -3489,13 +3489,13 @@
         <v>45133</v>
       </c>
       <c r="G45" s="17" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="H45" s="17" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="I45" s="17" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="J45" s="22" t="s">
         <v>24</v>
@@ -3543,13 +3543,13 @@
         <v>45133</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="H46" s="8" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="J46" s="9" t="s">
         <v>24</v>
@@ -3597,13 +3597,13 @@
         <v>45133</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="J47" s="9" t="s">
         <v>24</v>
@@ -3651,13 +3651,13 @@
         <v>45133</v>
       </c>
       <c r="G48" s="17" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="H48" s="17" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="I48" s="17" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="J48" s="22" t="s">
         <v>24</v>
@@ -3705,13 +3705,13 @@
         <v>45133</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="H49" s="8" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="I49" s="8" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="J49" s="9" t="s">
         <v>24</v>
@@ -3835,13 +3835,13 @@
         <v>45133</v>
       </c>
       <c r="G52" s="17" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="H52" s="17" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="I52" s="17" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="J52" s="22" t="s">
         <v>24</v>
@@ -3889,13 +3889,13 @@
         <v>45133</v>
       </c>
       <c r="G53" s="17" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="H53" s="17" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="I53" s="17" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="J53" s="22" t="s">
         <v>24</v>
@@ -3943,13 +3943,13 @@
         <v>45133</v>
       </c>
       <c r="G54" s="17" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="H54" s="17" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="I54" s="17" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="J54" s="22" t="s">
         <v>24</v>
@@ -3997,13 +3997,13 @@
         <v>45133</v>
       </c>
       <c r="G55" s="17" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="H55" s="8" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="I55" s="8" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="J55" s="9" t="s">
         <v>24</v>
@@ -5158,16 +5158,16 @@
         <v>206</v>
       </c>
       <c r="F89" s="7">
-        <v>45133</v>
+        <v>45135</v>
       </c>
       <c r="G89" s="8" t="s">
-        <v>287</v>
+        <v>328</v>
       </c>
       <c r="H89" s="8" t="s">
-        <v>288</v>
+        <v>329</v>
       </c>
       <c r="I89" s="8" t="s">
-        <v>289</v>
+        <v>333</v>
       </c>
       <c r="J89" s="9" t="s">
         <v>24</v>
@@ -5202,16 +5202,16 @@
         <v>208</v>
       </c>
       <c r="F90" s="7">
-        <v>45133</v>
+        <v>45135</v>
       </c>
       <c r="G90" s="8" t="s">
-        <v>290</v>
+        <v>330</v>
       </c>
       <c r="H90" s="8" t="s">
-        <v>291</v>
+        <v>331</v>
       </c>
       <c r="I90" s="8" t="s">
-        <v>292</v>
+        <v>332</v>
       </c>
       <c r="J90" s="9" t="s">
         <v>24</v>
@@ -5246,16 +5246,16 @@
         <v>210</v>
       </c>
       <c r="F91" s="7">
-        <v>45133</v>
+        <v>45135</v>
       </c>
       <c r="G91" s="8" t="s">
-        <v>284</v>
+        <v>325</v>
       </c>
       <c r="H91" s="8" t="s">
-        <v>285</v>
+        <v>326</v>
       </c>
       <c r="I91" s="8" t="s">
-        <v>286</v>
+        <v>327</v>
       </c>
       <c r="J91" s="9" t="s">
         <v>24</v>

--- a/GATEWAY/A1#111ESCXXXXXXXX/E-SC_SRL/RADX/V.9/report-checklist.xlsx
+++ b/GATEWAY/A1#111ESCXXXXXXXX/E-SC_SRL/RADX/V.9/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\inetpub\wwwroot\RadX_CRTF\RadX_CRTF\RadX_CRTF\temp\ACCREDITAMENTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E072FB-737C-4714-9CD0-CB3F5A379579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6616147-8DD0-4DD2-A12A-E2C94142F381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1323,31 +1323,31 @@
     <t>2023-07-26T17:52:09Z</t>
   </si>
   <si>
-    <t>2023-07-28T16:38:25Z</t>
-  </si>
-  <si>
-    <t>d7666b6fb17cbbb4</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.150.4.4.afe2084b775c67bf43b22fc6f71bce05e9832566674e6d0bf97abc4741728b3e.413990040c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-07-28T17:15:32Z</t>
-  </si>
-  <si>
-    <t>d7ee49729e9d936e</t>
-  </si>
-  <si>
-    <t>2023-07-28T17:19:15Z</t>
-  </si>
-  <si>
-    <t>9ed1e2e51f61203f</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.150.4.4.afe2084b775c67bf43b22fc6f71bce05e9832566674e6d0bf97abc4741728b3e.32f35b5c8e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.150.4.4.afe2084b775c67bf43b22fc6f71bce05e9832566674e6d0bf97abc4741728b3e.cd33c24bfb^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2023-08-01T08:40:25Z</t>
+  </si>
+  <si>
+    <t>6f1ef6205e0e1344</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.afe2084b775c67bf43b22fc6f71bce05e9832566674e6d0bf97abc4741728b3e.54626ddbec^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-08-01T08:52:32Z</t>
+  </si>
+  <si>
+    <t>03857296b744e0bc</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.afe2084b775c67bf43b22fc6f71bce05e9832566674e6d0bf97abc4741728b3e.f22acd42f8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-08-01T09:07:15Z</t>
+  </si>
+  <si>
+    <t>edc02ddde6f682a3</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.afe2084b775c67bf43b22fc6f71bce05e9832566674e6d0bf97abc4741728b3e.89558005da^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -2009,7 +2009,7 @@
       <pane xSplit="3" ySplit="7" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="I91" sqref="I91"/>
+      <selection pane="bottomRight" activeCell="I90" sqref="I90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5158,7 +5158,7 @@
         <v>206</v>
       </c>
       <c r="F89" s="7">
-        <v>45135</v>
+        <v>45139</v>
       </c>
       <c r="G89" s="8" t="s">
         <v>328</v>
@@ -5167,7 +5167,7 @@
         <v>329</v>
       </c>
       <c r="I89" s="8" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="J89" s="9" t="s">
         <v>24</v>
@@ -5202,16 +5202,16 @@
         <v>208</v>
       </c>
       <c r="F90" s="7">
-        <v>45135</v>
+        <v>45139</v>
       </c>
       <c r="G90" s="8" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H90" s="8" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="I90" s="8" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="J90" s="9" t="s">
         <v>24</v>
@@ -5246,7 +5246,7 @@
         <v>210</v>
       </c>
       <c r="F91" s="7">
-        <v>45135</v>
+        <v>45139</v>
       </c>
       <c r="G91" s="8" t="s">
         <v>325</v>
